--- a/ExcelFiles/PatientView.xlsx
+++ b/ExcelFiles/PatientView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\Cellma4ClinicalAuto\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F95B8-2376-4BCE-B1F4-E193249DBFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C15D80C-C385-41A8-B94C-5B71603474F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-21600" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -262,9 +262,6 @@
     <t>thayne.auto</t>
   </si>
   <si>
-    <t>Thayne@2024</t>
-  </si>
-  <si>
     <t>12/05/2005</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Thayne@2025</t>
   </si>
 </sst>
 </file>
@@ -730,15 +730,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE4FC9F-2982-4FD6-8BD6-4330FF8DA2DE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,15 +748,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -762,7 +764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -788,59 +790,58 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -986,7 +987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
@@ -994,16 +995,16 @@
         <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>53</v>
@@ -1075,7 +1076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="I3" s="5"/>
     </row>
   </sheetData>
@@ -1087,203 +1088,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD60B4E-8110-4DE8-A80C-7125F68639E9}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>92</v>
       </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>95</v>
       </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>97</v>
       </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>98</v>
       </c>
-      <c r="B15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1293,26 +1294,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -1567,10 +1548,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1587,20 +1599,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>